--- a/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/200850.xlsx
+++ b/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/200850.xlsx
@@ -458,182 +458,182 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>W_Beoordelen fraude-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>O_SELECTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-START</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACTIVATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>A_APPROVED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-COMPLETE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>A_PARTLYSUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-START</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-START</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>A_SUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>A_REGISTERED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT_BACK-COMPLETE</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-START</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-START</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>O_CREATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>O_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>W_Wijzigen contractgegevens-SCHEDULE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>A_SUBMITTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>A_PREACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>A_FINALIZED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>O_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>A_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>A_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>O_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>W_Nabellen offertes-SCHEDULE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-START</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>A_FINALIZED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>W_Valideren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>O_SELECTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-START</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>A_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-COMPLETE</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>A_APPROVED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-COMPLETE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>O_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-COMPLETE</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>A_PREACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>O_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-START</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACTIVATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>O_CREATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>A_REGISTERED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>A_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-START</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>O_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT_BACK-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>A_PARTLYSUBMITTED-COMPLETE</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="3" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="3" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="2" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="2" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="3" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1411,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="3" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2" t="n">
         <v>0</v>
@@ -1484,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="2" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="2" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="2" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="3" t="inlineStr">
         <is>
@@ -1569,10 +1569,10 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="3" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2" t="n">
         <v>0</v>
@@ -1744,13 +1744,13 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="2" t="n">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="2" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="3" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1853,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1871,16 +1871,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1910,13 +1910,13 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="3" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -1998,19 +1998,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="2" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="2" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="3" t="inlineStr">
         <is>
@@ -2089,10 +2089,10 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2125,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -2173,16 +2173,16 @@
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="3" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -2258,25 +2258,25 @@
         <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="2" t="n">
         <v>1</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="AF14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="2" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14" s="2" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="3" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2385,25 +2385,25 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>1</v>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="AF15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="3" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -2518,19 +2518,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="2" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="AF16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="2" t="n">
         <v>0</v>
@@ -2578,16 +2578,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="3" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2645,25 +2645,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>1</v>
@@ -2696,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="AF17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
@@ -2705,16 +2705,16 @@
         <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="3" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="2" t="n">
         <v>0</v>
@@ -2778,19 +2778,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="2" t="n">
         <v>0</v>
@@ -2823,13 +2823,13 @@
         <v>0</v>
       </c>
       <c r="AD18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="2" t="n">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="3" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2905,19 +2905,19 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
         <v>1</v>
       </c>
       <c r="AF19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
@@ -2965,16 +2965,16 @@
         <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="3" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="2" t="n">
         <v>0</v>
@@ -3038,25 +3038,25 @@
         <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V20" s="2" t="n">
         <v>1</v>
@@ -3083,13 +3083,13 @@
         <v>0</v>
       </c>
       <c r="AD20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="2" t="n">
         <v>0</v>
@@ -3098,16 +3098,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="3" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -3165,25 +3165,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>1</v>
@@ -3213,10 +3213,10 @@
         <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -3225,16 +3225,16 @@
         <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
         <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="3" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" s="2" t="n">
         <v>0</v>
@@ -3298,25 +3298,25 @@
         <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V22" s="2" t="n">
         <v>1</v>
@@ -3343,13 +3343,13 @@
         <v>0</v>
       </c>
       <c r="AD22" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="2" t="n">
         <v>0</v>
@@ -3358,16 +3358,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="3" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -3425,25 +3425,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
         <v>1</v>
@@ -3470,13 +3470,13 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
         <v>1</v>
       </c>
       <c r="AF23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
@@ -3485,16 +3485,16 @@
         <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="3" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" s="2" t="n">
         <v>0</v>
@@ -3558,25 +3558,25 @@
         <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V24" s="2" t="n">
         <v>1</v>
@@ -3603,13 +3603,13 @@
         <v>0</v>
       </c>
       <c r="AD24" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="2" t="n">
         <v>0</v>
@@ -3618,16 +3618,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ24" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="3" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -3685,25 +3685,25 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>1</v>
@@ -3730,13 +3730,13 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
         <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="3" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" s="2" t="n">
         <v>0</v>
@@ -3818,25 +3818,25 @@
         <v>0</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V26" s="2" t="n">
         <v>1</v>
@@ -3863,13 +3863,13 @@
         <v>0</v>
       </c>
       <c r="AD26" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="2" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ26" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="3" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>1</v>
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
@@ -3990,13 +3990,13 @@
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
         <v>0</v>
@@ -4005,16 +4005,16 @@
         <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK27" t="n">
         <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="3" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" s="2" t="n">
         <v>0</v>
@@ -4078,25 +4078,25 @@
         <v>0</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V28" s="2" t="n">
         <v>1</v>
@@ -4123,13 +4123,13 @@
         <v>0</v>
       </c>
       <c r="AD28" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="2" t="n">
         <v>0</v>
@@ -4138,16 +4138,16 @@
         <v>0</v>
       </c>
       <c r="AI28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ28" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="3" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -4202,28 +4202,28 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>1</v>
@@ -4250,13 +4250,13 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
         <v>1</v>
       </c>
       <c r="AF29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
         <v>0</v>
@@ -4265,16 +4265,16 @@
         <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
         <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="3" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>0</v>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J30" s="2" t="n">
         <v>0</v>
@@ -4338,25 +4338,25 @@
         <v>0</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V30" s="2" t="n">
         <v>1</v>
@@ -4383,13 +4383,13 @@
         <v>0</v>
       </c>
       <c r="AD30" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="2" t="n">
         <v>0</v>
@@ -4398,16 +4398,16 @@
         <v>0</v>
       </c>
       <c r="AI30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ30" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="3" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>0</v>
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31" s="2" t="n">
         <v>0</v>
@@ -4471,25 +4471,25 @@
         <v>0</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V31" s="2" t="n">
         <v>1</v>
@@ -4516,13 +4516,13 @@
         <v>0</v>
       </c>
       <c r="AD31" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="2" t="n">
         <v>0</v>
@@ -4531,16 +4531,16 @@
         <v>0</v>
       </c>
       <c r="AI31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ31" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="3" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>0</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J32" s="2" t="n">
         <v>0</v>
@@ -4604,25 +4604,25 @@
         <v>0</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V32" s="2" t="n">
         <v>1</v>
@@ -4649,13 +4649,13 @@
         <v>0</v>
       </c>
       <c r="AD32" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="2" t="n">
         <v>0</v>
@@ -4664,16 +4664,16 @@
         <v>0</v>
       </c>
       <c r="AI32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ32" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="3" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>0</v>
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J33" s="2" t="n">
         <v>0</v>
@@ -4737,25 +4737,25 @@
         <v>0</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V33" s="2" t="n">
         <v>1</v>
@@ -4782,13 +4782,13 @@
         <v>0</v>
       </c>
       <c r="AD33" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="2" t="n">
         <v>0</v>
@@ -4797,16 +4797,16 @@
         <v>0</v>
       </c>
       <c r="AI33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ33" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="3" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J34" s="2" t="n">
         <v>0</v>
@@ -4870,25 +4870,25 @@
         <v>0</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V34" s="2" t="n">
         <v>1</v>
@@ -4915,13 +4915,13 @@
         <v>0</v>
       </c>
       <c r="AD34" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="2" t="n">
         <v>0</v>
@@ -4930,16 +4930,16 @@
         <v>0</v>
       </c>
       <c r="AI34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ34" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="3" t="inlineStr">
         <is>
@@ -4985,10 +4985,10 @@
         <v>0</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="2" t="n">
         <v>1</v>
@@ -5003,25 +5003,25 @@
         <v>0</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V35" s="2" t="n">
         <v>1</v>
@@ -5048,13 +5048,13 @@
         <v>0</v>
       </c>
       <c r="AD35" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="2" t="n">
         <v>0</v>
@@ -5063,16 +5063,16 @@
         <v>0</v>
       </c>
       <c r="AI35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ35" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="3" t="inlineStr">
         <is>
@@ -5112,16 +5112,16 @@
         <v>0</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="2" t="n">
         <v>1</v>
@@ -5136,25 +5136,25 @@
         <v>0</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V36" s="2" t="n">
         <v>1</v>
@@ -5178,16 +5178,16 @@
         <v>1</v>
       </c>
       <c r="AC36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="2" t="n">
         <v>0</v>
@@ -5196,16 +5196,16 @@
         <v>0</v>
       </c>
       <c r="AI36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ36" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="3" t="inlineStr">
         <is>
@@ -5245,16 +5245,16 @@
         <v>0</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="2" t="n">
         <v>1</v>
@@ -5269,31 +5269,31 @@
         <v>0</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" s="2" t="n">
         <v>0</v>
@@ -5305,22 +5305,22 @@
         <v>1</v>
       </c>
       <c r="AA37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="2" t="n">
         <v>0</v>
@@ -5329,16 +5329,16 @@
         <v>0</v>
       </c>
       <c r="AI37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ37" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="3" t="inlineStr">
         <is>
@@ -5378,16 +5378,16 @@
         <v>0</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="2" t="n">
         <v>1</v>
@@ -5402,31 +5402,31 @@
         <v>0</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" s="2" t="n">
         <v>0</v>
@@ -5438,22 +5438,22 @@
         <v>1</v>
       </c>
       <c r="AA38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="2" t="n">
         <v>0</v>
@@ -5462,16 +5462,16 @@
         <v>0</v>
       </c>
       <c r="AI38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ38" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="3" t="inlineStr">
         <is>
@@ -5505,22 +5505,22 @@
         <v>1</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2" t="n">
         <v>1</v>
@@ -5535,31 +5535,31 @@
         <v>0</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" s="2" t="n">
         <v>0</v>
@@ -5571,22 +5571,22 @@
         <v>1</v>
       </c>
       <c r="AA39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="2" t="n">
         <v>0</v>
@@ -5595,16 +5595,16 @@
         <v>0</v>
       </c>
       <c r="AI39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ39" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="3" t="inlineStr">
         <is>
@@ -5638,22 +5638,22 @@
         <v>1</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="2" t="n">
         <v>1</v>
@@ -5668,31 +5668,31 @@
         <v>0</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V40" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X40" s="2" t="n">
         <v>0</v>
@@ -5704,22 +5704,22 @@
         <v>1</v>
       </c>
       <c r="AA40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG40" s="2" t="n">
         <v>0</v>
@@ -5728,16 +5728,16 @@
         <v>0</v>
       </c>
       <c r="AI40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ40" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK40" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="3" t="inlineStr">
         <is>
@@ -5771,22 +5771,22 @@
         <v>1</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2" t="n">
         <v>1</v>
@@ -5798,37 +5798,37 @@
         <v>0</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V41" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="2" t="n">
         <v>0</v>
@@ -5837,22 +5837,22 @@
         <v>1</v>
       </c>
       <c r="AA41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG41" s="2" t="n">
         <v>0</v>
@@ -5861,16 +5861,16 @@
         <v>0</v>
       </c>
       <c r="AI41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ41" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK41" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="3" t="inlineStr">
         <is>
@@ -5904,22 +5904,22 @@
         <v>1</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="2" t="n">
         <v>1</v>
@@ -5934,34 +5934,34 @@
         <v>1</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="2" t="n">
         <v>0</v>
@@ -5976,16 +5976,16 @@
         <v>1</v>
       </c>
       <c r="AC42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="2" t="n">
         <v>0</v>
@@ -5994,16 +5994,16 @@
         <v>0</v>
       </c>
       <c r="AI42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ42" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="3" t="inlineStr">
         <is>
@@ -6037,22 +6037,22 @@
         <v>1</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="2" t="n">
         <v>1</v>
@@ -6064,37 +6064,37 @@
         <v>0</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V43" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="2" t="n">
         <v>0</v>
@@ -6109,16 +6109,16 @@
         <v>1</v>
       </c>
       <c r="AC43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG43" s="2" t="n">
         <v>0</v>
@@ -6127,16 +6127,16 @@
         <v>0</v>
       </c>
       <c r="AI43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ43" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK43" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43" s="3" t="inlineStr">
         <is>
@@ -6170,22 +6170,22 @@
         <v>1</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="2" t="n">
         <v>1</v>
@@ -6200,58 +6200,58 @@
         <v>2</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U44" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA44" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="2" t="n">
         <v>0</v>
@@ -6260,16 +6260,16 @@
         <v>0</v>
       </c>
       <c r="AI44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ44" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="3" t="inlineStr">
         <is>
@@ -6303,22 +6303,22 @@
         <v>1</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="2" t="n">
         <v>1</v>
@@ -6330,61 +6330,61 @@
         <v>0</v>
       </c>
       <c r="N45" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="O45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V45" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA45" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG45" s="2" t="n">
         <v>0</v>
@@ -6393,16 +6393,16 @@
         <v>0</v>
       </c>
       <c r="AI45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ45" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45" s="3" t="inlineStr">
         <is>
@@ -6436,22 +6436,22 @@
         <v>1</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="2" t="n">
         <v>1</v>
@@ -6466,58 +6466,58 @@
         <v>3</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U46" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V46" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="Y46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA46" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB46" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="2" t="n">
         <v>0</v>
@@ -6526,16 +6526,16 @@
         <v>0</v>
       </c>
       <c r="AI46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ46" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK46" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="3" t="inlineStr">
         <is>
@@ -6569,22 +6569,22 @@
         <v>1</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2" t="n">
         <v>1</v>
@@ -6596,61 +6596,61 @@
         <v>0</v>
       </c>
       <c r="N47" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="O47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U47" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V47" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA47" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB47" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD47" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="2" t="n">
         <v>0</v>
@@ -6659,16 +6659,16 @@
         <v>0</v>
       </c>
       <c r="AI47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ47" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK47" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47" s="3" t="inlineStr">
         <is>
@@ -6702,22 +6702,22 @@
         <v>1</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="2" t="n">
         <v>1</v>
@@ -6729,61 +6729,61 @@
         <v>0</v>
       </c>
       <c r="N48" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U48" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="O48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V48" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X48" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA48" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB48" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG48" s="2" t="n">
         <v>0</v>
@@ -6795,13 +6795,13 @@
         <v>1</v>
       </c>
       <c r="AJ48" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK48" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="3" t="inlineStr">
         <is>
@@ -6835,22 +6835,22 @@
         <v>1</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="2" t="n">
         <v>1</v>
@@ -6862,61 +6862,61 @@
         <v>0</v>
       </c>
       <c r="N49" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="O49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA49" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB49" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG49" s="2" t="n">
         <v>1</v>
@@ -6928,13 +6928,13 @@
         <v>1</v>
       </c>
       <c r="AJ49" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK49" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49" s="3" t="inlineStr">
         <is>
@@ -6968,22 +6968,22 @@
         <v>1</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="2" t="n">
         <v>1</v>
@@ -6998,58 +6998,58 @@
         <v>4</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA50" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="2" t="n">
         <v>1</v>
@@ -7061,13 +7061,13 @@
         <v>1</v>
       </c>
       <c r="AJ50" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50" s="3" t="inlineStr">
         <is>
@@ -7101,22 +7101,22 @@
         <v>1</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="2" t="n">
         <v>1</v>
@@ -7131,58 +7131,58 @@
         <v>4</v>
       </c>
       <c r="O51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V51" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA51" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB51" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG51" s="2" t="n">
         <v>1</v>
@@ -7194,7 +7194,7 @@
         <v>1</v>
       </c>
       <c r="AJ51" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK51" s="2" t="n">
         <v>1</v>
@@ -7234,22 +7234,22 @@
         <v>1</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="2" t="n">
         <v>1</v>
@@ -7258,64 +7258,64 @@
         <v>0</v>
       </c>
       <c r="M52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" s="2" t="n">
         <v>4</v>
       </c>
       <c r="O52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA52" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG52" s="2" t="n">
         <v>1</v>
@@ -7327,7 +7327,7 @@
         <v>1</v>
       </c>
       <c r="AJ52" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK52" s="2" t="n">
         <v>1</v>
@@ -7373,16 +7373,16 @@
         <v>0</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="2" t="n">
         <v>1</v>
@@ -7391,64 +7391,64 @@
         <v>0</v>
       </c>
       <c r="M53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" s="2" t="n">
         <v>4</v>
       </c>
       <c r="O53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V53" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA53" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA53" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB53" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD53" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG53" s="2" t="n">
         <v>1</v>
@@ -7460,7 +7460,7 @@
         <v>1</v>
       </c>
       <c r="AJ53" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK53" s="2" t="n">
         <v>1</v>
@@ -7506,16 +7506,16 @@
         <v>0</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="2" t="n">
         <v>1</v>
@@ -7524,64 +7524,64 @@
         <v>1</v>
       </c>
       <c r="M54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" s="2" t="n">
         <v>4</v>
       </c>
       <c r="O54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V54" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA54" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB54" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD54" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG54" s="2" t="n">
         <v>1</v>
@@ -7593,7 +7593,7 @@
         <v>1</v>
       </c>
       <c r="AJ54" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK54" s="2" t="n">
         <v>1</v>
@@ -7639,16 +7639,16 @@
         <v>0</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="2" t="n">
         <v>1</v>
@@ -7657,13 +7657,13 @@
         <v>1</v>
       </c>
       <c r="M55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" s="2" t="n">
         <v>4</v>
       </c>
       <c r="O55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" s="2" t="n">
         <v>1</v>
@@ -7675,46 +7675,46 @@
         <v>0</v>
       </c>
       <c r="S55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V55" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA55" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB55" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD55" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG55" s="2" t="n">
         <v>1</v>
@@ -7726,7 +7726,7 @@
         <v>1</v>
       </c>
       <c r="AJ55" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK55" s="2" t="n">
         <v>1</v>
@@ -7772,16 +7772,16 @@
         <v>0</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="2" t="n">
         <v>1</v>
@@ -7790,13 +7790,13 @@
         <v>2</v>
       </c>
       <c r="M56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" s="2" t="n">
         <v>4</v>
       </c>
       <c r="O56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" s="2" t="n">
         <v>1</v>
@@ -7808,46 +7808,46 @@
         <v>0</v>
       </c>
       <c r="S56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA56" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG56" s="2" t="n">
         <v>1</v>
@@ -7859,7 +7859,7 @@
         <v>1</v>
       </c>
       <c r="AJ56" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK56" s="2" t="n">
         <v>1</v>
@@ -7905,16 +7905,16 @@
         <v>0</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="2" t="n">
         <v>1</v>
@@ -7923,64 +7923,64 @@
         <v>2</v>
       </c>
       <c r="M57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" s="2" t="n">
         <v>4</v>
       </c>
       <c r="O57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q57" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V57" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA57" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB57" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD57" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG57" s="2" t="n">
         <v>1</v>
@@ -7992,7 +7992,7 @@
         <v>1</v>
       </c>
       <c r="AJ57" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK57" s="2" t="n">
         <v>1</v>
@@ -8038,16 +8038,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="2" t="n">
         <v>1</v>
@@ -8056,64 +8056,64 @@
         <v>3</v>
       </c>
       <c r="M58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" s="2" t="n">
         <v>4</v>
       </c>
       <c r="O58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q58" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA58" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD58" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG58" s="2" t="n">
         <v>1</v>
@@ -8125,7 +8125,7 @@
         <v>1</v>
       </c>
       <c r="AJ58" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK58" s="2" t="n">
         <v>1</v>
@@ -8171,16 +8171,16 @@
         <v>0</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="2" t="n">
         <v>1</v>
@@ -8189,64 +8189,64 @@
         <v>3</v>
       </c>
       <c r="M59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" s="2" t="n">
         <v>4</v>
       </c>
       <c r="O59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q59" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R59" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V59" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA59" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB59" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD59" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE59" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG59" s="2" t="n">
         <v>1</v>
@@ -8258,7 +8258,7 @@
         <v>1</v>
       </c>
       <c r="AJ59" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK59" s="2" t="n">
         <v>1</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="2" t="n">
         <v>1</v>
@@ -8322,64 +8322,64 @@
         <v>4</v>
       </c>
       <c r="M60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" s="2" t="n">
         <v>4</v>
       </c>
       <c r="O60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q60" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U60" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V60" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA60" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB60" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD60" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG60" s="2" t="n">
         <v>1</v>
@@ -8391,7 +8391,7 @@
         <v>1</v>
       </c>
       <c r="AJ60" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK60" s="2" t="n">
         <v>1</v>
@@ -8437,16 +8437,16 @@
         <v>0</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="2" t="n">
         <v>1</v>
@@ -8455,64 +8455,64 @@
         <v>4</v>
       </c>
       <c r="M61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" s="2" t="n">
         <v>4</v>
       </c>
       <c r="O61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U61" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="R61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X61" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA61" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB61" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD61" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE61" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG61" s="2" t="n">
         <v>1</v>
@@ -8524,7 +8524,7 @@
         <v>1</v>
       </c>
       <c r="AJ61" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK61" s="2" t="n">
         <v>1</v>
@@ -8570,16 +8570,16 @@
         <v>0</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="2" t="n">
         <v>1</v>
@@ -8588,64 +8588,64 @@
         <v>5</v>
       </c>
       <c r="M62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" s="2" t="n">
         <v>4</v>
       </c>
       <c r="O62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U62" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA62" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="R62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U62" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V62" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X62" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA62" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB62" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD62" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG62" s="2" t="n">
         <v>1</v>
@@ -8657,7 +8657,7 @@
         <v>1</v>
       </c>
       <c r="AJ62" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK62" s="2" t="n">
         <v>1</v>
@@ -8703,16 +8703,16 @@
         <v>0</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="2" t="n">
         <v>1</v>
@@ -8721,64 +8721,64 @@
         <v>5</v>
       </c>
       <c r="M63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" s="2" t="n">
         <v>4</v>
       </c>
       <c r="O63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q63" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U63" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V63" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W63" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA63" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="R63" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S63" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U63" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V63" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W63" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X63" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y63" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA63" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB63" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD63" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE63" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG63" s="2" t="n">
         <v>2</v>
@@ -8790,7 +8790,7 @@
         <v>1</v>
       </c>
       <c r="AJ63" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK63" s="2" t="n">
         <v>1</v>
@@ -8836,16 +8836,16 @@
         <v>0</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="2" t="n">
         <v>1</v>
@@ -8854,64 +8854,64 @@
         <v>5</v>
       </c>
       <c r="M64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" s="2" t="n">
         <v>4</v>
       </c>
       <c r="O64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q64" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R64" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U64" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V64" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA64" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB64" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD64" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE64" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG64" s="2" t="n">
         <v>2</v>
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="AJ64" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK64" s="2" t="n">
         <v>1</v>
@@ -8969,16 +8969,16 @@
         <v>0</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="2" t="n">
         <v>1</v>
@@ -8987,64 +8987,64 @@
         <v>5</v>
       </c>
       <c r="M65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" s="2" t="n">
         <v>4</v>
       </c>
       <c r="O65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q65" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R65" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U65" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V65" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y65" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA65" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB65" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD65" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE65" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG65" s="2" t="n">
         <v>2</v>
@@ -9056,13 +9056,13 @@
         <v>1</v>
       </c>
       <c r="AJ65" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK65" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL65" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM65" s="3" t="inlineStr">
         <is>
@@ -9096,16 +9096,16 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
         <v>1</v>
@@ -9120,58 +9120,58 @@
         <v>4</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U66" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V66" t="n">
         <v>1</v>
       </c>
       <c r="W66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA66" t="n">
         <v>4</v>
       </c>
-      <c r="Y66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>1</v>
-      </c>
       <c r="AB66" t="n">
         <v>1</v>
       </c>
       <c r="AC66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD66" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE66" t="n">
         <v>0</v>
       </c>
       <c r="AF66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG66" t="n">
         <v>2</v>
@@ -9183,22 +9183,22 @@
         <v>1</v>
       </c>
       <c r="AJ66" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK66" t="n">
         <v>1</v>
       </c>
       <c r="AL66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM66" s="3" t="inlineStr">
         <is>
           <t>deviant</t>
         </is>
       </c>
-      <c r="AN66" t="inlineStr">
-        <is>
-          <t>regular</t>
+      <c r="AN66" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
         </is>
       </c>
       <c r="AO66" t="inlineStr">
@@ -9229,16 +9229,16 @@
         <v>0</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J67" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="2" t="n">
         <v>1</v>
@@ -9247,19 +9247,19 @@
         <v>5</v>
       </c>
       <c r="M67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" s="2" t="n">
         <v>4</v>
       </c>
       <c r="O67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q67" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R67" s="2" t="n">
         <v>0</v>
@@ -9268,43 +9268,43 @@
         <v>1</v>
       </c>
       <c r="T67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U67" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V67" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y67" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA67" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA67" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB67" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD67" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE67" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF67" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG67" s="2" t="n">
         <v>2</v>
@@ -9316,13 +9316,13 @@
         <v>1</v>
       </c>
       <c r="AJ67" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK67" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL67" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM67" s="3" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -9356,37 +9356,37 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
         <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68" t="n">
         <v>4</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q68" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -9395,40 +9395,40 @@
         <v>1</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U68" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V68" t="n">
         <v>1</v>
       </c>
       <c r="W68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA68" t="n">
         <v>4</v>
       </c>
-      <c r="Y68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>1</v>
-      </c>
       <c r="AB68" t="n">
         <v>1</v>
       </c>
       <c r="AC68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD68" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF68" t="n">
         <v>1</v>
@@ -9443,13 +9443,13 @@
         <v>1</v>
       </c>
       <c r="AJ68" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK68" t="n">
         <v>1</v>
       </c>
       <c r="AL68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM68" s="3" t="inlineStr">
         <is>
@@ -9489,16 +9489,16 @@
         <v>0</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J69" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="2" t="n">
         <v>1</v>
@@ -9507,7 +9507,7 @@
         <v>5</v>
       </c>
       <c r="M69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" s="2" t="n">
         <v>4</v>
@@ -9516,10 +9516,10 @@
         <v>1</v>
       </c>
       <c r="P69" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q69" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R69" s="2" t="n">
         <v>0</v>
@@ -9528,43 +9528,43 @@
         <v>1</v>
       </c>
       <c r="T69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U69" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V69" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA69" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB69" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD69" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE69" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF69" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG69" s="2" t="n">
         <v>2</v>
@@ -9576,13 +9576,13 @@
         <v>1</v>
       </c>
       <c r="AJ69" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK69" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL69" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM69" s="3" t="inlineStr">
         <is>
@@ -9616,16 +9616,16 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
         <v>1</v>
@@ -9634,7 +9634,7 @@
         <v>5</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" t="n">
         <v>4</v>
@@ -9643,10 +9643,10 @@
         <v>1</v>
       </c>
       <c r="P70" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -9655,61 +9655,61 @@
         <v>1</v>
       </c>
       <c r="T70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U70" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V70" t="n">
         <v>1</v>
       </c>
       <c r="W70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA70" t="n">
         <v>4</v>
       </c>
-      <c r="Y70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>1</v>
-      </c>
       <c r="AB70" t="n">
         <v>1</v>
       </c>
       <c r="AC70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD70" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE70" t="n">
         <v>1</v>
       </c>
       <c r="AF70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG70" t="n">
         <v>2</v>
       </c>
       <c r="AH70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI70" t="n">
         <v>1</v>
       </c>
       <c r="AJ70" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK70" t="n">
         <v>1</v>
       </c>
       <c r="AL70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM70" s="3" t="inlineStr">
         <is>
@@ -9749,16 +9749,16 @@
         <v>0</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J71" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" s="2" t="n">
         <v>1</v>
@@ -9767,7 +9767,7 @@
         <v>5</v>
       </c>
       <c r="M71" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" s="2" t="n">
         <v>4</v>
@@ -9776,41 +9776,41 @@
         <v>1</v>
       </c>
       <c r="P71" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q71" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R71" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S71" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T71" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V71" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W71" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X71" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y71" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA71" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y71" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA71" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB71" s="2" t="n">
         <v>1</v>
       </c>
@@ -9818,13 +9818,13 @@
         <v>1</v>
       </c>
       <c r="AD71" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE71" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF71" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG71" s="2" t="n">
         <v>2</v>
@@ -9836,13 +9836,13 @@
         <v>1</v>
       </c>
       <c r="AJ71" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK71" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL71" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM71" s="3" t="inlineStr">
         <is>
@@ -9873,19 +9873,19 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
@@ -9894,7 +9894,7 @@
         <v>5</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72" t="n">
         <v>4</v>
@@ -9903,41 +9903,41 @@
         <v>1</v>
       </c>
       <c r="P72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q72" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S72" t="n">
         <v>1</v>
       </c>
       <c r="T72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U72" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V72" t="n">
         <v>1</v>
       </c>
       <c r="W72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA72" t="n">
         <v>4</v>
       </c>
-      <c r="Y72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>1</v>
-      </c>
       <c r="AB72" t="n">
         <v>1</v>
       </c>
@@ -9945,40 +9945,40 @@
         <v>1</v>
       </c>
       <c r="AD72" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE72" t="n">
         <v>1</v>
       </c>
       <c r="AF72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG72" t="n">
         <v>2</v>
       </c>
       <c r="AH72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI72" t="n">
         <v>1</v>
       </c>
       <c r="AJ72" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK72" t="n">
         <v>1</v>
       </c>
       <c r="AL72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM72" s="3" t="inlineStr">
         <is>
           <t>deviant</t>
         </is>
       </c>
-      <c r="AN72" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
+      <c r="AN72" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="AO72" t="inlineStr">
@@ -10012,13 +10012,13 @@
         <v>1</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J73" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="2" t="n">
         <v>1</v>
@@ -10027,7 +10027,7 @@
         <v>5</v>
       </c>
       <c r="M73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73" s="2" t="n">
         <v>4</v>
@@ -10036,41 +10036,41 @@
         <v>1</v>
       </c>
       <c r="P73" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q73" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S73" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V73" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X73" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA73" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y73" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z73" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA73" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB73" s="2" t="n">
         <v>1</v>
       </c>
@@ -10078,13 +10078,13 @@
         <v>1</v>
       </c>
       <c r="AD73" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE73" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF73" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG73" s="2" t="n">
         <v>2</v>
@@ -10096,13 +10096,13 @@
         <v>1</v>
       </c>
       <c r="AJ73" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK73" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL73" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM73" s="3" t="inlineStr">
         <is>
@@ -10133,19 +10133,19 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
         <v>1</v>
@@ -10163,41 +10163,41 @@
         <v>1</v>
       </c>
       <c r="P74" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q74" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S74" t="n">
         <v>1</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V74" t="n">
         <v>1</v>
       </c>
       <c r="W74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA74" t="n">
         <v>4</v>
       </c>
-      <c r="Y74" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>1</v>
-      </c>
       <c r="AB74" t="n">
         <v>1</v>
       </c>
@@ -10205,40 +10205,40 @@
         <v>1</v>
       </c>
       <c r="AD74" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG74" t="n">
         <v>2</v>
       </c>
       <c r="AH74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI74" t="n">
         <v>1</v>
       </c>
       <c r="AJ74" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK74" t="n">
         <v>1</v>
       </c>
       <c r="AL74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM74" s="3" t="inlineStr">
         <is>
           <t>deviant</t>
         </is>
       </c>
-      <c r="AN74" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
+      <c r="AN74" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="AO74" t="inlineStr">
@@ -10263,7 +10263,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" s="2" t="n">
         <v>0</v>
@@ -10272,13 +10272,13 @@
         <v>1</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J75" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="2" t="n">
         <v>1</v>
@@ -10287,7 +10287,7 @@
         <v>5</v>
       </c>
       <c r="M75" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75" s="2" t="n">
         <v>4</v>
@@ -10296,41 +10296,41 @@
         <v>1</v>
       </c>
       <c r="P75" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q75" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R75" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S75" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T75" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U75" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V75" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W75" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X75" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA75" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y75" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z75" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA75" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB75" s="2" t="n">
         <v>1</v>
       </c>
@@ -10338,13 +10338,13 @@
         <v>1</v>
       </c>
       <c r="AD75" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE75" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF75" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG75" s="2" t="n">
         <v>2</v>
@@ -10356,13 +10356,13 @@
         <v>1</v>
       </c>
       <c r="AJ75" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK75" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL75" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM75" s="3" t="inlineStr">
         <is>
@@ -10390,22 +10390,22 @@
         <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
         <v>1</v>
@@ -10423,41 +10423,41 @@
         <v>1</v>
       </c>
       <c r="P76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S76" t="n">
         <v>1</v>
       </c>
       <c r="T76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U76" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V76" t="n">
         <v>1</v>
       </c>
       <c r="W76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA76" t="n">
         <v>4</v>
       </c>
-      <c r="Y76" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>1</v>
-      </c>
       <c r="AB76" t="n">
         <v>1</v>
       </c>
@@ -10465,40 +10465,40 @@
         <v>1</v>
       </c>
       <c r="AD76" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG76" t="n">
         <v>2</v>
       </c>
       <c r="AH76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI76" t="n">
         <v>1</v>
       </c>
       <c r="AJ76" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK76" t="n">
         <v>1</v>
       </c>
       <c r="AL76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM76" s="3" t="inlineStr">
         <is>
           <t>deviant</t>
         </is>
       </c>
-      <c r="AN76" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
+      <c r="AN76" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="AO76" t="inlineStr">
